--- a/biology/Botanique/Melanthera_biflora/Melanthera_biflora.xlsx
+++ b/biology/Botanique/Melanthera_biflora/Melanthera_biflora.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Melanthera biflora[5], faux topinambour de rocaille, tournesol des plages ou marguerite du bord de mer[6], est une espèce de plantes à fleurs de la famille des Asteraceae.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Melanthera biflora, faux topinambour de rocaille, tournesol des plages ou marguerite du bord de mer, est une espèce de plantes à fleurs de la famille des Asteraceae.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une plante modérément halophyte assez abondante dans la zone tropicale de la région Indo-Pacifique. On la trouve généralement dans les zones côtières et dans les îles[7]. Elle pousse soit le long des côtes, près des plages et en bord de mangrove, soit sur des collines herbeuses et en lisières de forêts. 
-Avec Portulaca oleracea, Ipomoea pes-caprae et Digitaria ciliaris, Melanthera biflora est une des premières espèces de plantes à coloniser les zones dégradées des régions tropicales[8].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une plante modérément halophyte assez abondante dans la zone tropicale de la région Indo-Pacifique. On la trouve généralement dans les zones côtières et dans les îles. Elle pousse soit le long des côtes, près des plages et en bord de mangrove, soit sur des collines herbeuses et en lisières de forêts. 
+Avec Portulaca oleracea, Ipomoea pes-caprae et Digitaria ciliaris, Melanthera biflora est une des premières espèces de plantes à coloniser les zones dégradées des régions tropicales.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Melanthera biflora est une plante pérenne. Les tiges peuvent atteindre 2 m avec une forte tendance arbustive, cherchant d'autres plantes ou des accidents du terrain comme support pour former des masses denses. Les feuilles sont pennées avec les marges plus ou moins serrées. Les fleurs d'un diamètre de 8-10 mm sont jaunes et petites. Les fruits forment une tète dense[9].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Melanthera biflora est une plante pérenne. Les tiges peuvent atteindre 2 m avec une forte tendance arbustive, cherchant d'autres plantes ou des accidents du terrain comme support pour former des masses denses. Les feuilles sont pennées avec les marges plus ou moins serrées. Les fleurs d'un diamètre de 8-10 mm sont jaunes et petites. Les fruits forment une tète dense.
 </t>
         </is>
       </c>
@@ -574,11 +590,13 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Melanthera biflora est une plante importante dans l'herboristerie des cultures de l'Asie du Sud, l'Asie du Sud-Est et des îles du Pacifique[10],[11],[12]. 
-Les feuilles sont utilisées traditionnellement contre les maux du ventre[12],[13] et a Fiji aussi contre l'acné[10].
-Les racines sont un remède anthelminthique[14].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Melanthera biflora est une plante importante dans l'herboristerie des cultures de l'Asie du Sud, l'Asie du Sud-Est et des îles du Pacifique. 
+Les feuilles sont utilisées traditionnellement contre les maux du ventre, et a Fiji aussi contre l'acné.
+Les racines sont un remède anthelminthique.
 </t>
         </is>
       </c>
